--- a/data/trans_orig/P70A05_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A05_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E8B8503-141F-429D-892E-80EE0BCFC5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3381AF9E-2EE6-4393-9775-7AEC3F685177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C21F0B50-27C3-4A3E-B03E-552292D9268D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{52FFD3FA-3D3D-4628-A7DF-BECCBFB49110}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población según si tiene un comité de seguridad y salud o bien delegados de prevención en su empresa en 2007 (Tasa respuesta: 32,78%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>49,76%</t>
   </si>
   <si>
-    <t>62,34%</t>
+    <t>62,22%</t>
   </si>
   <si>
     <t>32,6%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
   </si>
   <si>
     <t>49,5%</t>
   </si>
   <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>43,92%</t>
   </si>
   <si>
-    <t>37,66%</t>
+    <t>37,78%</t>
   </si>
   <si>
     <t>50,24%</t>
@@ -113,19 +113,19 @@
     <t>67,4%</t>
   </si>
   <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
   </si>
   <si>
     <t>50,5%</t>
   </si>
   <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,154 +137,166 @@
     <t>50,18%</t>
   </si>
   <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
   </si>
   <si>
     <t>37,48%</t>
   </si>
   <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
   </si>
   <si>
     <t>46,07%</t>
   </si>
   <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
     <t>42,92%</t>
   </si>
   <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
   </si>
   <si>
     <t>54,81%</t>
   </si>
   <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
   </si>
   <si>
     <t>47,78%</t>
   </si>
   <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>55,43%</t>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
   </si>
   <si>
     <t>39,03%</t>
   </si>
   <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
   </si>
   <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
   </si>
   <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>44,57%</t>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
   </si>
   <si>
     <t>60,97%</t>
   </si>
   <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
   <si>
     <t>51,81%</t>
   </si>
   <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -699,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95D325C-D1E6-4564-B5A0-1111C19FD40A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAABD4BF-86B2-44F7-AC69-68DE2A7773CF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1133,13 +1145,13 @@
         <v>184217</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>97</v>
@@ -1148,13 +1160,13 @@
         <v>100655</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>274</v>
@@ -1163,13 +1175,13 @@
         <v>284872</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1184,13 +1196,13 @@
         <v>138504</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>116</v>
@@ -1199,13 +1211,13 @@
         <v>122106</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>248</v>
@@ -1214,13 +1226,13 @@
         <v>260610</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1288,13 +1300,13 @@
         <v>781950</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>285</v>
@@ -1303,13 +1315,13 @@
         <v>293080</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1030</v>
@@ -1318,13 +1330,13 @@
         <v>1075030</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1339,13 +1351,13 @@
         <v>697985</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>433</v>
@@ -1354,13 +1366,13 @@
         <v>457773</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1104</v>
@@ -1369,13 +1381,13 @@
         <v>1155758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1431,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A05_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A05_2007-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3381AF9E-2EE6-4393-9775-7AEC3F685177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F1FFCC9-2FC7-4623-B1BB-1B13A5E22D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{52FFD3FA-3D3D-4628-A7DF-BECCBFB49110}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{391F1E32-152F-4224-B7AD-C4DA7F07CF15}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>56,08%</t>
   </si>
   <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
   </si>
   <si>
     <t>32,6%</t>
   </si>
   <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
   </si>
   <si>
     <t>49,5%</t>
   </si>
   <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>43,92%</t>
   </si>
   <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
   </si>
   <si>
     <t>67,4%</t>
   </si>
   <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
   </si>
   <si>
     <t>50,5%</t>
   </si>
   <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>50,18%</t>
   </si>
   <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
   </si>
   <si>
     <t>37,48%</t>
   </si>
   <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
   </si>
   <si>
     <t>46,07%</t>
   </si>
   <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
   </si>
   <si>
     <t>49,82%</t>
   </si>
   <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
   </si>
   <si>
     <t>62,52%</t>
   </si>
   <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
   </si>
   <si>
     <t>53,93%</t>
   </si>
   <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>57,08%</t>
   </si>
   <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
   </si>
   <si>
     <t>45,19%</t>
   </si>
   <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
   </si>
   <si>
     <t>52,22%</t>
   </si>
   <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
     <t>47,88%</t>
   </si>
   <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
+    <t>61,59%</t>
   </si>
   <si>
     <t>47,78%</t>
   </si>
   <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
   </si>
   <si>
     <t>39,03%</t>
   </si>
   <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
   </si>
   <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
   </si>
   <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
   </si>
   <si>
     <t>60,97%</t>
   </si>
   <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
   </si>
   <si>
     <t>51,81%</t>
   </si>
   <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAABD4BF-86B2-44F7-AC69-68DE2A7773CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94DBEEC-5C35-44D8-92F6-0FD4099BF59C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A05_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A05_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F1FFCC9-2FC7-4623-B1BB-1B13A5E22D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B4A5FBC-A0B6-4542-9291-368DDCC64958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{391F1E32-152F-4224-B7AD-C4DA7F07CF15}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BA3C214-3021-4878-8C33-96E39847E5C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>Población según si tiene un comité de seguridad y salud o bien delegados de prevención en su empresa en 2007 (Tasa respuesta: 32,78%)</t>
   </si>
@@ -68,34 +68,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>56,08%</t>
   </si>
   <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
   </si>
   <si>
     <t>32,6%</t>
   </si>
   <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
   </si>
   <si>
     <t>49,5%</t>
   </si>
   <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>43,92%</t>
   </si>
   <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
   </si>
   <si>
     <t>67,4%</t>
   </si>
   <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
   </si>
   <si>
     <t>50,5%</t>
   </si>
   <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,166 +137,154 @@
     <t>50,18%</t>
   </si>
   <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
   </si>
   <si>
     <t>37,48%</t>
   </si>
   <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
   </si>
   <si>
     <t>46,07%</t>
   </si>
   <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
   </si>
   <si>
     <t>49,82%</t>
   </si>
   <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
   </si>
   <si>
     <t>62,52%</t>
   </si>
   <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
   </si>
   <si>
     <t>53,93%</t>
   </si>
   <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
   </si>
   <si>
     <t>45,19%</t>
   </si>
   <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
   </si>
   <si>
     <t>52,22%</t>
   </si>
   <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
   </si>
   <si>
     <t>54,81%</t>
   </si>
   <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
   </si>
   <si>
     <t>47,78%</t>
   </si>
   <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
+    <t>55,43%</t>
   </si>
   <si>
     <t>39,03%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
   </si>
   <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
   </si>
   <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
+    <t>44,57%</t>
   </si>
   <si>
     <t>60,97%</t>
   </si>
   <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
   </si>
   <si>
     <t>51,81%</t>
   </si>
   <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94DBEEC-5C35-44D8-92F6-0FD4099BF59C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993D0D43-F009-4139-B3DA-5032AB5D2F69}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1145,13 +1133,13 @@
         <v>184217</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>97</v>
@@ -1160,13 +1148,13 @@
         <v>100655</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>274</v>
@@ -1175,13 +1163,13 @@
         <v>284872</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1196,13 +1184,13 @@
         <v>138504</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>116</v>
@@ -1211,13 +1199,13 @@
         <v>122106</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>248</v>
@@ -1226,13 +1214,13 @@
         <v>260610</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,13 +1288,13 @@
         <v>781950</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>285</v>
@@ -1315,13 +1303,13 @@
         <v>293080</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>1030</v>
@@ -1330,13 +1318,13 @@
         <v>1075030</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,13 +1339,13 @@
         <v>697985</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="H14" s="7">
         <v>433</v>
@@ -1366,13 +1354,13 @@
         <v>457773</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>1104</v>
@@ -1381,13 +1369,13 @@
         <v>1155758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1443,7 +1431,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A05_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A05_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B4A5FBC-A0B6-4542-9291-368DDCC64958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B06C154A-D43A-430F-A3A4-6C9E59DDB611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BA3C214-3021-4878-8C33-96E39847E5C5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9794074A-7EE3-43F4-9506-B20F17095122}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993D0D43-F009-4139-B3DA-5032AB5D2F69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B91C60-55C7-43C2-AD37-188487366A86}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
